--- a/TEST_SCENARIOS/Test_Scenario_Membership.xlsx
+++ b/TEST_SCENARIOS/Test_Scenario_Membership.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29BE2AA-5F0A-4C81-AE6A-C69DAA86744D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B059F90-5728-4551-8DDF-86E4E032A1EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,15 +394,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -411,12 +405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -746,7 +734,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,27 +754,27 @@
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -824,110 +812,110 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -1074,7 +1062,7 @@
       <c r="H28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="E9:E12"/>
@@ -1083,6 +1071,10 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G9:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
